--- a/标题-ID.xlsx
+++ b/标题-ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\PycharmProjects\CursorCode8-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC8A4B-F75B-43FB-9C72-9EE64963FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBBD6D2-DA27-4AFC-A424-4FA2799DA718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="11060" windowWidth="17660" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8730" yWindow="9110" windowWidth="17660" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>标题</t>
   </si>
@@ -185,117 +185,146 @@
     <t>input_t_value_B0103KY58020102</t>
   </si>
   <si>
+    <t>input_t_value_B5502KY58020103</t>
+  </si>
+  <si>
+    <t>input_t_value_B5507KY58020103</t>
+  </si>
+  <si>
+    <t>input_t_value_B5601KY58020103</t>
+  </si>
+  <si>
+    <t>input_t_value_B0201KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B0202KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B0203KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B0601KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1001KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1201KY5802010103</t>
+  </si>
+  <si>
+    <t>input_t_value_B1301KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1601KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1801KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1803KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1804KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B1807KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B2201KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B2202KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B2204KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B2213KY580203</t>
+  </si>
+  <si>
+    <t>input_t_value_B2504KY5802010101</t>
+  </si>
+  <si>
+    <t>input_t_value_B2603KY5802010101</t>
+  </si>
+  <si>
+    <t>input_t_value_B2604KY5802010102</t>
+  </si>
+  <si>
+    <t>input_t_value_B2606KY5802010103</t>
+  </si>
+  <si>
+    <t>input_t_value_B2609KY58020102</t>
+  </si>
+  <si>
+    <t>input_t_value_B5105KY58020102</t>
+  </si>
+  <si>
+    <t>外聘工资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转卡信息工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3950_ypt-sno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_3950_ypt-amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>input_t_value_B5501KY58020103</t>
-  </si>
-  <si>
-    <t>input_t_value_B5502KY58020103</t>
-  </si>
-  <si>
-    <t>input_t_value_B5507KY58020103</t>
-  </si>
-  <si>
-    <t>input_t_value_B5601KY58020103</t>
-  </si>
-  <si>
-    <t>input_t_value_B0201KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B0202KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B0203KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B0601KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1001KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1201KY5802010103</t>
-  </si>
-  <si>
-    <t>input_t_value_B1301KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1601KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1801KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1803KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1804KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B1807KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B2201KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B2202KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B2204KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B2213KY580203</t>
-  </si>
-  <si>
-    <t>input_t_value_B2504KY5802010101</t>
-  </si>
-  <si>
-    <t>input_t_value_B2603KY5802010101</t>
-  </si>
-  <si>
-    <t>input_t_value_B2604KY5802010102</t>
-  </si>
-  <si>
-    <t>input_t_value_B2606KY5802010103</t>
-  </si>
-  <si>
-    <t>input_t_value_B2609KY58020102</t>
-  </si>
-  <si>
-    <t>input_t_value_B5105KY58020102</t>
-  </si>
-  <si>
-    <t>外聘工资</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步按钮1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步按钮2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转卡信息工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3950_ypt-sno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formWF_YB6_3950_ypt-amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步按钮3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formWF_YB6_2178_temp-startdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水河校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,16 +734,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -815,7 +844,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -831,10 +860,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -842,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -850,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -858,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -866,7 +895,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -874,7 +903,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -882,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -890,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -898,7 +927,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -906,7 +935,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -914,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -922,7 +951,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -930,7 +959,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -938,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -946,7 +975,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -954,7 +983,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -962,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -970,7 +999,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -978,7 +1007,7 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -986,7 +1015,7 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -994,7 +1023,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -1002,7 +1031,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -1010,7 +1039,7 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -1018,7 +1047,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -1026,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -1034,12 +1063,12 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -1047,30 +1076,71 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
-        <v>85</v>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>